--- a/ligas_footystats.xlsx
+++ b/ligas_footystats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,39 +986,39 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Israel Israeli Premier League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/italy-serie-a.png</t>
+          <t>https://cdn.footystats.org/img/competitions/israel-israeli-premier-league.png</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[{'id': 68, 'year': 20162017, 'country': 'Italy'}, {'id': 69, 'year': 20152016, 'country': 'Italy'}, {'id': 70, 'year': 20142015, 'country': 'Italy'}, {'id': 71, 'year': 20132014, 'country': 'Italy'}, {'id': 182, 'year': 20172018, 'country': 'Italy'}, {'id': 1680, 'year': 20182019, 'country': 'Italy'}, {'id': 2588, 'year': 20192020, 'country': 'Italy'}, {'id': 3940, 'year': 20112012, 'country': 'Italy'}, {'id': 3941, 'year': 20082009, 'country': 'Italy'}, {'id': 3942, 'year': 20092010, 'country': 'Italy'}, {'id': 3945, 'year': 20122013, 'country': 'Italy'}, {'id': 4889, 'year': 20202021, 'country': 'Italy'}, {'id': 6198, 'year': 20212022, 'country': 'Italy'}, {'id': 7608, 'year': 20222023, 'country': 'Italy'}, {'id': 9697, 'year': 20232024, 'country': 'Italy'}, {'id': 11181, 'year': 20102011, 'country': 'Italy'}, {'id': 12530, 'year': 20242025, 'country': 'Italy'}, {'id': 15068, 'year': 20252026, 'country': 'Italy'}]</t>
+          <t>[{'id': 527, 'year': 20172018, 'country': 'Israel'}, {'id': 528, 'year': 20162017, 'country': 'Israel'}, {'id': 529, 'year': 20152016, 'country': 'Israel'}, {'id': 530, 'year': 20142015, 'country': 'Israel'}, {'id': 531, 'year': 20132014, 'country': 'Israel'}, {'id': 1568, 'year': 20182019, 'country': 'Israel'}, {'id': 2283, 'year': 20192020, 'country': 'Israel'}, {'id': 4695, 'year': 20202021, 'country': 'Israel'}, {'id': 6040, 'year': 20212022, 'country': 'Israel'}, {'id': 7448, 'year': 20222023, 'country': 'Israel'}, {'id': 9564, 'year': 20232024, 'country': 'Israel'}, {'id': 12377, 'year': 20242025, 'country': 'Israel'}, {'id': 16353, 'year': 20252026, 'country': 'Israel'}, {'id': 16363, 'year': 20252026, 'country': 'Israel'}]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Israel</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/italy-serie-b.png</t>
+          <t>https://cdn.footystats.org/img/competitions/italy-serie-a.png</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[{'id': 77, 'year': 20162017, 'country': 'Italy'}, {'id': 78, 'year': 20152016, 'country': 'Italy'}, {'id': 79, 'year': 20142015, 'country': 'Italy'}, {'id': 80, 'year': 20132014, 'country': 'Italy'}, {'id': 81, 'year': 20122013, 'country': 'Italy'}, {'id': 183, 'year': 20172018, 'country': 'Italy'}, {'id': 1749, 'year': 20182019, 'country': 'Italy'}, {'id': 2642, 'year': 20192020, 'country': 'Italy'}, {'id': 3946, 'year': 20092010, 'country': 'Italy'}, {'id': 3948, 'year': 20102011, 'country': 'Italy'}, {'id': 3949, 'year': 20112012, 'country': 'Italy'}, {'id': 4972, 'year': 20202021, 'country': 'Italy'}, {'id': 6205, 'year': 20212022, 'country': 'Italy'}, {'id': 7864, 'year': 20222023, 'country': 'Italy'}, {'id': 9808, 'year': 20232024, 'country': 'Italy'}, {'id': 12621, 'year': 20242025, 'country': 'Italy'}, {'id': 15632, 'year': 20252026, 'country': 'Italy'}]</t>
+          <t>[{'id': 68, 'year': 20162017, 'country': 'Italy'}, {'id': 69, 'year': 20152016, 'country': 'Italy'}, {'id': 70, 'year': 20142015, 'country': 'Italy'}, {'id': 71, 'year': 20132014, 'country': 'Italy'}, {'id': 182, 'year': 20172018, 'country': 'Italy'}, {'id': 1680, 'year': 20182019, 'country': 'Italy'}, {'id': 2588, 'year': 20192020, 'country': 'Italy'}, {'id': 3940, 'year': 20112012, 'country': 'Italy'}, {'id': 3941, 'year': 20082009, 'country': 'Italy'}, {'id': 3942, 'year': 20092010, 'country': 'Italy'}, {'id': 3945, 'year': 20122013, 'country': 'Italy'}, {'id': 4889, 'year': 20202021, 'country': 'Italy'}, {'id': 6198, 'year': 20212022, 'country': 'Italy'}, {'id': 7608, 'year': 20222023, 'country': 'Italy'}, {'id': 9697, 'year': 20232024, 'country': 'Italy'}, {'id': 11181, 'year': 20102011, 'country': 'Italy'}, {'id': 12530, 'year': 20242025, 'country': 'Italy'}, {'id': 15068, 'year': 20252026, 'country': 'Italy'}]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1030,39 +1030,39 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Japan J1 League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/japan-j1-league.png</t>
+          <t>https://cdn.footystats.org/img/competitions/italy-serie-b.png</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[{'id': 162, 'year': 2017, 'country': 'Japan'}, {'id': 250, 'year': 2016, 'country': 'Japan'}, {'id': 251, 'year': 2015, 'country': 'Japan'}, {'id': 252, 'year': 2014, 'country': 'Japan'}, {'id': 253, 'year': 2013, 'country': 'Japan'}, {'id': 254, 'year': 2012, 'country': 'Japan'}, {'id': 1071, 'year': 2018, 'country': 'Japan'}, {'id': 1864, 'year': 2019, 'country': 'Japan'}, {'id': 3686, 'year': 2020, 'country': 'Japan'}, {'id': 5434, 'year': 2021, 'country': 'Japan'}, {'id': 6935, 'year': 2022, 'country': 'Japan'}, {'id': 8810, 'year': 2023, 'country': 'Japan'}, {'id': 10994, 'year': 2024, 'country': 'Japan'}, {'id': 16242, 'year': 2025, 'country': 'Japan'}]</t>
+          <t>[{'id': 77, 'year': 20162017, 'country': 'Italy'}, {'id': 78, 'year': 20152016, 'country': 'Italy'}, {'id': 79, 'year': 20142015, 'country': 'Italy'}, {'id': 80, 'year': 20132014, 'country': 'Italy'}, {'id': 81, 'year': 20122013, 'country': 'Italy'}, {'id': 183, 'year': 20172018, 'country': 'Italy'}, {'id': 1749, 'year': 20182019, 'country': 'Italy'}, {'id': 2642, 'year': 20192020, 'country': 'Italy'}, {'id': 3946, 'year': 20092010, 'country': 'Italy'}, {'id': 3948, 'year': 20102011, 'country': 'Italy'}, {'id': 3949, 'year': 20112012, 'country': 'Italy'}, {'id': 4972, 'year': 20202021, 'country': 'Italy'}, {'id': 6205, 'year': 20212022, 'country': 'Italy'}, {'id': 7864, 'year': 20222023, 'country': 'Italy'}, {'id': 9808, 'year': 20232024, 'country': 'Italy'}, {'id': 12621, 'year': 20242025, 'country': 'Italy'}, {'id': 15632, 'year': 20252026, 'country': 'Italy'}]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Japan J2 League</t>
+          <t>Japan J1 League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/japan-j2-league.png</t>
+          <t>https://cdn.footystats.org/img/competitions/japan-j1-league.png</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[{'id': 130, 'year': 2016, 'country': 'Japan'}, {'id': 131, 'year': 2015, 'country': 'Japan'}, {'id': 132, 'year': 2014, 'country': 'Japan'}, {'id': 153, 'year': 2017, 'country': 'Japan'}, {'id': 1073, 'year': 2018, 'country': 'Japan'}, {'id': 1865, 'year': 2019, 'country': 'Japan'}, {'id': 3684, 'year': 2020, 'country': 'Japan'}, {'id': 5495, 'year': 2021, 'country': 'Japan'}, {'id': 6936, 'year': 2022, 'country': 'Japan'}, {'id': 8811, 'year': 2023, 'country': 'Japan'}, {'id': 10995, 'year': 2024, 'country': 'Japan'}, {'id': 16239, 'year': 2025, 'country': 'Japan'}]</t>
+          <t>[{'id': 162, 'year': 2017, 'country': 'Japan'}, {'id': 250, 'year': 2016, 'country': 'Japan'}, {'id': 251, 'year': 2015, 'country': 'Japan'}, {'id': 252, 'year': 2014, 'country': 'Japan'}, {'id': 253, 'year': 2013, 'country': 'Japan'}, {'id': 254, 'year': 2012, 'country': 'Japan'}, {'id': 1071, 'year': 2018, 'country': 'Japan'}, {'id': 1864, 'year': 2019, 'country': 'Japan'}, {'id': 3686, 'year': 2020, 'country': 'Japan'}, {'id': 5434, 'year': 2021, 'country': 'Japan'}, {'id': 6935, 'year': 2022, 'country': 'Japan'}, {'id': 8810, 'year': 2023, 'country': 'Japan'}, {'id': 10994, 'year': 2024, 'country': 'Japan'}, {'id': 16242, 'year': 2025, 'country': 'Japan'}]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1074,39 +1074,39 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Japan J2 League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/netherlands-eerste-divisie.png</t>
+          <t>https://cdn.footystats.org/img/competitions/japan-j2-league.png</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[{'id': 55, 'year': 20162017, 'country': 'Netherlands'}, {'id': 56, 'year': 20152016, 'country': 'Netherlands'}, {'id': 57, 'year': 20142015, 'country': 'Netherlands'}, {'id': 179, 'year': 20172018, 'country': 'Netherlands'}, {'id': 1584, 'year': 20182019, 'country': 'Netherlands'}, {'id': 2273, 'year': 20192020, 'country': 'Netherlands'}, {'id': 4228, 'year': 20132014, 'country': 'Netherlands'}, {'id': 4236, 'year': 20122013, 'country': 'Netherlands'}, {'id': 4243, 'year': 20112012, 'country': 'Netherlands'}, {'id': 4246, 'year': 20102011, 'country': 'Netherlands'}, {'id': 4247, 'year': 20092010, 'country': 'Netherlands'}, {'id': 4748, 'year': 20202021, 'country': 'Netherlands'}, {'id': 5950, 'year': 20212022, 'country': 'Netherlands'}, {'id': 7484, 'year': 20222023, 'country': 'Netherlands'}, {'id': 9654, 'year': 20232024, 'country': 'Netherlands'}, {'id': 12317, 'year': 20242025, 'country': 'Netherlands'}, {'id': 14987, 'year': 20252026, 'country': 'Netherlands'}]</t>
+          <t>[{'id': 130, 'year': 2016, 'country': 'Japan'}, {'id': 131, 'year': 2015, 'country': 'Japan'}, {'id': 132, 'year': 2014, 'country': 'Japan'}, {'id': 153, 'year': 2017, 'country': 'Japan'}, {'id': 1073, 'year': 2018, 'country': 'Japan'}, {'id': 1865, 'year': 2019, 'country': 'Japan'}, {'id': 3684, 'year': 2020, 'country': 'Japan'}, {'id': 5495, 'year': 2021, 'country': 'Japan'}, {'id': 6936, 'year': 2022, 'country': 'Japan'}, {'id': 8811, 'year': 2023, 'country': 'Japan'}, {'id': 10995, 'year': 2024, 'country': 'Japan'}, {'id': 16239, 'year': 2025, 'country': 'Japan'}]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/netherlands-eredivisie.png</t>
+          <t>https://cdn.footystats.org/img/competitions/netherlands-eerste-divisie.png</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[{'id': 51, 'year': 20162017, 'country': 'Netherlands'}, {'id': 52, 'year': 20152016, 'country': 'Netherlands'}, {'id': 53, 'year': 20142015, 'country': 'Netherlands'}, {'id': 54, 'year': 20132014, 'country': 'Netherlands'}, {'id': 178, 'year': 20172018, 'country': 'Netherlands'}, {'id': 1585, 'year': 20182019, 'country': 'Netherlands'}, {'id': 2272, 'year': 20192020, 'country': 'Netherlands'}, {'id': 4226, 'year': 20122013, 'country': 'Netherlands'}, {'id': 4234, 'year': 20112012, 'country': 'Netherlands'}, {'id': 4746, 'year': 20202021, 'country': 'Netherlands'}, {'id': 5951, 'year': 20212022, 'country': 'Netherlands'}, {'id': 7482, 'year': 20222023, 'country': 'Netherlands'}, {'id': 9653, 'year': 20232024, 'country': 'Netherlands'}, {'id': 12322, 'year': 20242025, 'country': 'Netherlands'}, {'id': 14936, 'year': 20252026, 'country': 'Netherlands'}]</t>
+          <t>[{'id': 55, 'year': 20162017, 'country': 'Netherlands'}, {'id': 56, 'year': 20152016, 'country': 'Netherlands'}, {'id': 57, 'year': 20142015, 'country': 'Netherlands'}, {'id': 179, 'year': 20172018, 'country': 'Netherlands'}, {'id': 1584, 'year': 20182019, 'country': 'Netherlands'}, {'id': 2273, 'year': 20192020, 'country': 'Netherlands'}, {'id': 4228, 'year': 20132014, 'country': 'Netherlands'}, {'id': 4236, 'year': 20122013, 'country': 'Netherlands'}, {'id': 4243, 'year': 20112012, 'country': 'Netherlands'}, {'id': 4246, 'year': 20102011, 'country': 'Netherlands'}, {'id': 4247, 'year': 20092010, 'country': 'Netherlands'}, {'id': 4748, 'year': 20202021, 'country': 'Netherlands'}, {'id': 5950, 'year': 20212022, 'country': 'Netherlands'}, {'id': 7484, 'year': 20222023, 'country': 'Netherlands'}, {'id': 9654, 'year': 20232024, 'country': 'Netherlands'}, {'id': 12317, 'year': 20242025, 'country': 'Netherlands'}, {'id': 14987, 'year': 20252026, 'country': 'Netherlands'}]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1118,83 +1118,83 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/norway-eliteserien.png</t>
+          <t>https://cdn.footystats.org/img/competitions/netherlands-eredivisie.png</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[{'id': 44, 'year': 2016, 'country': 'Norway'}, {'id': 45, 'year': 2015, 'country': 'Norway'}, {'id': 46, 'year': 2017, 'country': 'Norway'}, {'id': 993, 'year': 2018, 'country': 'Norway'}, {'id': 1839, 'year': 2019, 'country': 'Norway'}, {'id': 3695, 'year': 2020, 'country': 'Norway'}, {'id': 4224, 'year': 2014, 'country': 'Norway'}, {'id': 4231, 'year': 2013, 'country': 'Norway'}, {'id': 4237, 'year': 2012, 'country': 'Norway'}, {'id': 4242, 'year': 2011, 'country': 'Norway'}, {'id': 4244, 'year': 2010, 'country': 'Norway'}, {'id': 5496, 'year': 2021, 'country': 'Norway'}, {'id': 7048, 'year': 2022, 'country': 'Norway'}, {'id': 8739, 'year': 2023, 'country': 'Norway'}, {'id': 10976, 'year': 2024, 'country': 'Norway'}, {'id': 16260, 'year': 2025, 'country': 'Norway'}, {'id': 16558, 'year': 2026, 'country': 'Norway'}]</t>
+          <t>[{'id': 51, 'year': 20162017, 'country': 'Netherlands'}, {'id': 52, 'year': 20152016, 'country': 'Netherlands'}, {'id': 53, 'year': 20142015, 'country': 'Netherlands'}, {'id': 54, 'year': 20132014, 'country': 'Netherlands'}, {'id': 178, 'year': 20172018, 'country': 'Netherlands'}, {'id': 1585, 'year': 20182019, 'country': 'Netherlands'}, {'id': 2272, 'year': 20192020, 'country': 'Netherlands'}, {'id': 4226, 'year': 20122013, 'country': 'Netherlands'}, {'id': 4234, 'year': 20112012, 'country': 'Netherlands'}, {'id': 4746, 'year': 20202021, 'country': 'Netherlands'}, {'id': 5951, 'year': 20212022, 'country': 'Netherlands'}, {'id': 7482, 'year': 20222023, 'country': 'Netherlands'}, {'id': 9653, 'year': 20232024, 'country': 'Netherlands'}, {'id': 12322, 'year': 20242025, 'country': 'Netherlands'}, {'id': 14936, 'year': 20252026, 'country': 'Netherlands'}]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/poland-ekstraklasa.png</t>
+          <t>https://cdn.footystats.org/img/competitions/norway-eliteserien.png</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[{'id': 255, 'year': 20172018, 'country': 'Poland'}, {'id': 256, 'year': 20152016, 'country': 'Poland'}, {'id': 257, 'year': 20132014, 'country': 'Poland'}, {'id': 278, 'year': 20162017, 'country': 'Poland'}, {'id': 279, 'year': 20142015, 'country': 'Poland'}, {'id': 1589, 'year': 20182019, 'country': 'Poland'}, {'id': 2328, 'year': 20192020, 'country': 'Poland'}, {'id': 3972, 'year': 20092010, 'country': 'Poland'}, {'id': 3973, 'year': 20122013, 'country': 'Poland'}, {'id': 3974, 'year': 20102011, 'country': 'Poland'}, {'id': 3975, 'year': 20112012, 'country': 'Poland'}, {'id': 4760, 'year': 20202021, 'country': 'Poland'}, {'id': 5948, 'year': 20212022, 'country': 'Poland'}, {'id': 7428, 'year': 20222023, 'country': 'Poland'}, {'id': 9553, 'year': 20232024, 'country': 'Poland'}, {'id': 12120, 'year': 20242025, 'country': 'Poland'}, {'id': 15031, 'year': 20252026, 'country': 'Poland'}]</t>
+          <t>[{'id': 44, 'year': 2016, 'country': 'Norway'}, {'id': 45, 'year': 2015, 'country': 'Norway'}, {'id': 46, 'year': 2017, 'country': 'Norway'}, {'id': 993, 'year': 2018, 'country': 'Norway'}, {'id': 1839, 'year': 2019, 'country': 'Norway'}, {'id': 3695, 'year': 2020, 'country': 'Norway'}, {'id': 4224, 'year': 2014, 'country': 'Norway'}, {'id': 4231, 'year': 2013, 'country': 'Norway'}, {'id': 4237, 'year': 2012, 'country': 'Norway'}, {'id': 4242, 'year': 2011, 'country': 'Norway'}, {'id': 4244, 'year': 2010, 'country': 'Norway'}, {'id': 5496, 'year': 2021, 'country': 'Norway'}, {'id': 7048, 'year': 2022, 'country': 'Norway'}, {'id': 8739, 'year': 2023, 'country': 'Norway'}, {'id': 10976, 'year': 2024, 'country': 'Norway'}, {'id': 16260, 'year': 2025, 'country': 'Norway'}, {'id': 16558, 'year': 2026, 'country': 'Norway'}]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/portugal-liga-nos.png</t>
+          <t>https://cdn.footystats.org/img/competitions/poland-ekstraklasa.png</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[{'id': 13, 'year': 20162017, 'country': 'Portugal'}, {'id': 14, 'year': 20152016, 'country': 'Portugal'}, {'id': 17, 'year': 20142015, 'country': 'Portugal'}, {'id': 18, 'year': 20132014, 'country': 'Portugal'}, {'id': 173, 'year': 20172018, 'country': 'Portugal'}, {'id': 1593, 'year': 20182019, 'country': 'Portugal'}, {'id': 2321, 'year': 20192020, 'country': 'Portugal'}, {'id': 4225, 'year': 20122013, 'country': 'Portugal'}, {'id': 4232, 'year': 20112012, 'country': 'Portugal'}, {'id': 4238, 'year': 20102011, 'country': 'Portugal'}, {'id': 4885, 'year': 20202021, 'country': 'Portugal'}, {'id': 6117, 'year': 20212022, 'country': 'Portugal'}, {'id': 7731, 'year': 20222023, 'country': 'Portugal'}, {'id': 9984, 'year': 20232024, 'country': 'Portugal'}, {'id': 12931, 'year': 20242025, 'country': 'Portugal'}, {'id': 15115, 'year': 20252026, 'country': 'Portugal'}]</t>
+          <t>[{'id': 255, 'year': 20172018, 'country': 'Poland'}, {'id': 256, 'year': 20152016, 'country': 'Poland'}, {'id': 257, 'year': 20132014, 'country': 'Poland'}, {'id': 278, 'year': 20162017, 'country': 'Poland'}, {'id': 279, 'year': 20142015, 'country': 'Poland'}, {'id': 1589, 'year': 20182019, 'country': 'Poland'}, {'id': 2328, 'year': 20192020, 'country': 'Poland'}, {'id': 3972, 'year': 20092010, 'country': 'Poland'}, {'id': 3973, 'year': 20122013, 'country': 'Poland'}, {'id': 3974, 'year': 20102011, 'country': 'Poland'}, {'id': 3975, 'year': 20112012, 'country': 'Poland'}, {'id': 4760, 'year': 20202021, 'country': 'Poland'}, {'id': 5948, 'year': 20212022, 'country': 'Poland'}, {'id': 7428, 'year': 20222023, 'country': 'Poland'}, {'id': 9553, 'year': 20232024, 'country': 'Poland'}, {'id': 12120, 'year': 20242025, 'country': 'Poland'}, {'id': 15031, 'year': 20252026, 'country': 'Poland'}]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/portugal-ligapro.png</t>
+          <t>https://cdn.footystats.org/img/competitions/portugal-liga-nos.png</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[{'id': 174, 'year': 20172018, 'country': 'Portugal'}, {'id': 965, 'year': 20162017, 'country': 'Portugal'}, {'id': 966, 'year': 20152016, 'country': 'Portugal'}, {'id': 1594, 'year': 20182019, 'country': 'Portugal'}, {'id': 2320, 'year': 20192020, 'country': 'Portugal'}, {'id': 4284, 'year': 20142015, 'country': 'Portugal'}, {'id': 4291, 'year': 20122013, 'country': 'Portugal'}, {'id': 4309, 'year': 20102011, 'country': 'Portugal'}, {'id': 4322, 'year': 20092010, 'country': 'Portugal'}, {'id': 4886, 'year': 20202021, 'country': 'Portugal'}, {'id': 6116, 'year': 20212022, 'country': 'Portugal'}, {'id': 7732, 'year': 20222023, 'country': 'Portugal'}, {'id': 9704, 'year': 20232024, 'country': 'Portugal'}, {'id': 12585, 'year': 20242025, 'country': 'Portugal'}, {'id': 15717, 'year': 20252026, 'country': 'Portugal'}]</t>
+          <t>[{'id': 13, 'year': 20162017, 'country': 'Portugal'}, {'id': 14, 'year': 20152016, 'country': 'Portugal'}, {'id': 17, 'year': 20142015, 'country': 'Portugal'}, {'id': 18, 'year': 20132014, 'country': 'Portugal'}, {'id': 173, 'year': 20172018, 'country': 'Portugal'}, {'id': 1593, 'year': 20182019, 'country': 'Portugal'}, {'id': 2321, 'year': 20192020, 'country': 'Portugal'}, {'id': 4225, 'year': 20122013, 'country': 'Portugal'}, {'id': 4232, 'year': 20112012, 'country': 'Portugal'}, {'id': 4238, 'year': 20102011, 'country': 'Portugal'}, {'id': 4885, 'year': 20202021, 'country': 'Portugal'}, {'id': 6117, 'year': 20212022, 'country': 'Portugal'}, {'id': 7731, 'year': 20222023, 'country': 'Portugal'}, {'id': 9984, 'year': 20232024, 'country': 'Portugal'}, {'id': 12931, 'year': 20242025, 'country': 'Portugal'}, {'id': 15115, 'year': 20252026, 'country': 'Portugal'}]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1206,171 +1206,171 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/romania-liga-i.png</t>
+          <t>https://cdn.footystats.org/img/competitions/portugal-ligapro.png</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[{'id': 1086, 'year': 20172018, 'country': 'Romania'}, {'id': 1087, 'year': 20162017, 'country': 'Romania'}, {'id': 1088, 'year': 20152016, 'country': 'Romania'}, {'id': 1089, 'year': 20142015, 'country': 'Romania'}, {'id': 1090, 'year': 20132014, 'country': 'Romania'}, {'id': 1596, 'year': 20182019, 'country': 'Romania'}, {'id': 2312, 'year': 20192020, 'country': 'Romania'}, {'id': 4764, 'year': 20202021, 'country': 'Romania'}, {'id': 6037, 'year': 20212022, 'country': 'Romania'}, {'id': 7663, 'year': 20222023, 'country': 'Romania'}, {'id': 9622, 'year': 20232024, 'country': 'Romania'}, {'id': 12495, 'year': 20242025, 'country': 'Romania'}, {'id': 15015, 'year': 20252026, 'country': 'Romania'}]</t>
+          <t>[{'id': 174, 'year': 20172018, 'country': 'Portugal'}, {'id': 965, 'year': 20162017, 'country': 'Portugal'}, {'id': 966, 'year': 20152016, 'country': 'Portugal'}, {'id': 1594, 'year': 20182019, 'country': 'Portugal'}, {'id': 2320, 'year': 20192020, 'country': 'Portugal'}, {'id': 4284, 'year': 20142015, 'country': 'Portugal'}, {'id': 4291, 'year': 20122013, 'country': 'Portugal'}, {'id': 4309, 'year': 20102011, 'country': 'Portugal'}, {'id': 4322, 'year': 20092010, 'country': 'Portugal'}, {'id': 4886, 'year': 20202021, 'country': 'Portugal'}, {'id': 6116, 'year': 20212022, 'country': 'Portugal'}, {'id': 7732, 'year': 20222023, 'country': 'Portugal'}, {'id': 9704, 'year': 20232024, 'country': 'Portugal'}, {'id': 12585, 'year': 20242025, 'country': 'Portugal'}, {'id': 15717, 'year': 20252026, 'country': 'Portugal'}]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/saudi-arabia-professional-league.png</t>
+          <t>https://cdn.footystats.org/img/competitions/romania-liga-i.png</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[{'id': 916, 'year': 20172018, 'country': 'Saudi Arabia'}, {'id': 917, 'year': 20162017, 'country': 'Saudi Arabia'}, {'id': 918, 'year': 20152016, 'country': 'Saudi Arabia'}, {'id': 919, 'year': 20142015, 'country': 'Saudi Arabia'}, {'id': 927, 'year': 20132014, 'country': 'Saudi Arabia'}, {'id': 1599, 'year': 20182019, 'country': 'Saudi Arabia'}, {'id': 2518, 'year': 20192020, 'country': 'Saudi Arabia'}, {'id': 5193, 'year': 20202021, 'country': 'Saudi Arabia'}, {'id': 6212, 'year': 20212022, 'country': 'Saudi Arabia'}, {'id': 8089, 'year': 20222023, 'country': 'Saudi Arabia'}, {'id': 9883, 'year': 20232024, 'country': 'Saudi Arabia'}, {'id': 12772, 'year': 20242025, 'country': 'Saudi Arabia'}, {'id': 15741, 'year': 20252026, 'country': 'Saudi Arabia'}]</t>
+          <t>[{'id': 1086, 'year': 20172018, 'country': 'Romania'}, {'id': 1087, 'year': 20162017, 'country': 'Romania'}, {'id': 1088, 'year': 20152016, 'country': 'Romania'}, {'id': 1089, 'year': 20142015, 'country': 'Romania'}, {'id': 1090, 'year': 20132014, 'country': 'Romania'}, {'id': 1596, 'year': 20182019, 'country': 'Romania'}, {'id': 2312, 'year': 20192020, 'country': 'Romania'}, {'id': 4764, 'year': 20202021, 'country': 'Romania'}, {'id': 6037, 'year': 20212022, 'country': 'Romania'}, {'id': 7663, 'year': 20222023, 'country': 'Romania'}, {'id': 9622, 'year': 20232024, 'country': 'Romania'}, {'id': 12495, 'year': 20242025, 'country': 'Romania'}, {'id': 15015, 'year': 20252026, 'country': 'Romania'}]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/scotland-premiership.png</t>
+          <t>https://cdn.footystats.org/img/competitions/saudi-arabia-professional-league.png</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[{'id': 2, 'year': 20162017, 'country': 'Scotland'}, {'id': 164, 'year': 20172018, 'country': 'Scotland'}, {'id': 167, 'year': 20152016, 'country': 'Scotland'}, {'id': 168, 'year': 20142015, 'country': 'Scotland'}, {'id': 169, 'year': 20132014, 'country': 'Scotland'}, {'id': 223, 'year': 20122013, 'country': 'Scotland'}, {'id': 1600, 'year': 20182019, 'country': 'Scotland'}, {'id': 2361, 'year': 20192020, 'country': 'Scotland'}, {'id': 4478, 'year': 20202021, 'country': 'Scotland'}, {'id': 5992, 'year': 20212022, 'country': 'Scotland'}, {'id': 7494, 'year': 20222023, 'country': 'Scotland'}, {'id': 9636, 'year': 20232024, 'country': 'Scotland'}, {'id': 12455, 'year': 20242025, 'country': 'Scotland'}, {'id': 15000, 'year': 20252026, 'country': 'Scotland'}]</t>
+          <t>[{'id': 916, 'year': 20172018, 'country': 'Saudi Arabia'}, {'id': 917, 'year': 20162017, 'country': 'Saudi Arabia'}, {'id': 918, 'year': 20152016, 'country': 'Saudi Arabia'}, {'id': 919, 'year': 20142015, 'country': 'Saudi Arabia'}, {'id': 927, 'year': 20132014, 'country': 'Saudi Arabia'}, {'id': 1599, 'year': 20182019, 'country': 'Saudi Arabia'}, {'id': 2518, 'year': 20192020, 'country': 'Saudi Arabia'}, {'id': 5193, 'year': 20202021, 'country': 'Saudi Arabia'}, {'id': 6212, 'year': 20212022, 'country': 'Saudi Arabia'}, {'id': 8089, 'year': 20222023, 'country': 'Saudi Arabia'}, {'id': 9883, 'year': 20232024, 'country': 'Saudi Arabia'}, {'id': 12772, 'year': 20242025, 'country': 'Saudi Arabia'}, {'id': 15741, 'year': 20252026, 'country': 'Saudi Arabia'}]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/serbia-superliga.png</t>
+          <t>https://cdn.footystats.org/img/competitions/scotland-premiership.png</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[{'id': 416, 'year': 20172018, 'country': 'Serbia'}, {'id': 417, 'year': 20162017, 'country': 'Serbia'}, {'id': 418, 'year': 20152016, 'country': 'Serbia'}, {'id': 419, 'year': 20142015, 'country': 'Serbia'}, {'id': 420, 'year': 20132014, 'country': 'Serbia'}, {'id': 1604, 'year': 20182019, 'country': 'Serbia'}, {'id': 2254, 'year': 20192020, 'country': 'Serbia'}, {'id': 4533, 'year': 20202021, 'country': 'Serbia'}, {'id': 6046, 'year': 20212022, 'country': 'Serbia'}, {'id': 7492, 'year': 20222023, 'country': 'Serbia'}, {'id': 10070, 'year': 20232024, 'country': 'Serbia'}, {'id': 12138, 'year': 20242025, 'country': 'Serbia'}, {'id': 15065, 'year': 20252026, 'country': 'Serbia'}]</t>
+          <t>[{'id': 2, 'year': 20162017, 'country': 'Scotland'}, {'id': 164, 'year': 20172018, 'country': 'Scotland'}, {'id': 167, 'year': 20152016, 'country': 'Scotland'}, {'id': 168, 'year': 20142015, 'country': 'Scotland'}, {'id': 169, 'year': 20132014, 'country': 'Scotland'}, {'id': 223, 'year': 20122013, 'country': 'Scotland'}, {'id': 1600, 'year': 20182019, 'country': 'Scotland'}, {'id': 2361, 'year': 20192020, 'country': 'Scotland'}, {'id': 4478, 'year': 20202021, 'country': 'Scotland'}, {'id': 5992, 'year': 20212022, 'country': 'Scotland'}, {'id': 7494, 'year': 20222023, 'country': 'Scotland'}, {'id': 9636, 'year': 20232024, 'country': 'Scotland'}, {'id': 12455, 'year': 20242025, 'country': 'Scotland'}, {'id': 15000, 'year': 20252026, 'country': 'Scotland'}]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Scotland</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/slovenia-prvaliga.png</t>
+          <t>https://cdn.footystats.org/img/competitions/serbia-superliga.png</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[{'id': 426, 'year': 20172018, 'country': 'Slovenia'}, {'id': 427, 'year': 20162017, 'country': 'Slovenia'}, {'id': 428, 'year': 20152016, 'country': 'Slovenia'}, {'id': 429, 'year': 20142015, 'country': 'Slovenia'}, {'id': 433, 'year': 20132014, 'country': 'Slovenia'}, {'id': 1608, 'year': 20182019, 'country': 'Slovenia'}, {'id': 2251, 'year': 20192020, 'country': 'Slovenia'}, {'id': 4635, 'year': 20202021, 'country': 'Slovenia'}, {'id': 6048, 'year': 20212022, 'country': 'Slovenia'}, {'id': 7526, 'year': 20222023, 'country': 'Slovenia'}, {'id': 9579, 'year': 20232024, 'country': 'Slovenia'}, {'id': 12476, 'year': 20242025, 'country': 'Slovenia'}, {'id': 15063, 'year': 20252026, 'country': 'Slovenia'}]</t>
+          <t>[{'id': 416, 'year': 20172018, 'country': 'Serbia'}, {'id': 417, 'year': 20162017, 'country': 'Serbia'}, {'id': 418, 'year': 20152016, 'country': 'Serbia'}, {'id': 419, 'year': 20142015, 'country': 'Serbia'}, {'id': 420, 'year': 20132014, 'country': 'Serbia'}, {'id': 1604, 'year': 20182019, 'country': 'Serbia'}, {'id': 2254, 'year': 20192020, 'country': 'Serbia'}, {'id': 4533, 'year': 20202021, 'country': 'Serbia'}, {'id': 6046, 'year': 20212022, 'country': 'Serbia'}, {'id': 7492, 'year': 20222023, 'country': 'Serbia'}, {'id': 10070, 'year': 20232024, 'country': 'Serbia'}, {'id': 12138, 'year': 20242025, 'country': 'Serbia'}, {'id': 15065, 'year': 20252026, 'country': 'Serbia'}]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>South Africa Premier Soccer League</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/south-africa-premier-soccer-league.png</t>
+          <t>https://cdn.footystats.org/img/competitions/slovenia-prvaliga.png</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[{'id': 267, 'year': 20172018, 'country': 'South Africa'}, {'id': 268, 'year': 20162017, 'country': 'South Africa'}, {'id': 269, 'year': 20152016, 'country': 'South Africa'}, {'id': 280, 'year': 20142015, 'country': 'South Africa'}, {'id': 281, 'year': 20132014, 'country': 'South Africa'}, {'id': 1684, 'year': 20182019, 'country': 'South Africa'}, {'id': 2327, 'year': 20192020, 'country': 'South Africa'}, {'id': 5225, 'year': 20202021, 'country': 'South Africa'}, {'id': 6311, 'year': 20212022, 'country': 'South Africa'}, {'id': 7851, 'year': 20222023, 'country': 'South Africa'}, {'id': 9814, 'year': 20232024, 'country': 'South Africa'}, {'id': 13284, 'year': 20242025, 'country': 'South Africa'}, {'id': 15587, 'year': 20252026, 'country': 'South Africa'}]</t>
+          <t>[{'id': 426, 'year': 20172018, 'country': 'Slovenia'}, {'id': 427, 'year': 20162017, 'country': 'Slovenia'}, {'id': 428, 'year': 20152016, 'country': 'Slovenia'}, {'id': 429, 'year': 20142015, 'country': 'Slovenia'}, {'id': 433, 'year': 20132014, 'country': 'Slovenia'}, {'id': 1608, 'year': 20182019, 'country': 'Slovenia'}, {'id': 2251, 'year': 20192020, 'country': 'Slovenia'}, {'id': 4635, 'year': 20202021, 'country': 'Slovenia'}, {'id': 6048, 'year': 20212022, 'country': 'Slovenia'}, {'id': 7526, 'year': 20222023, 'country': 'Slovenia'}, {'id': 9579, 'year': 20232024, 'country': 'Slovenia'}, {'id': 12476, 'year': 20242025, 'country': 'Slovenia'}, {'id': 15063, 'year': 20252026, 'country': 'Slovenia'}]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>South Korea K League 1</t>
+          <t>South Africa Premier Soccer League</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/south-korea-k-league-1.png</t>
+          <t>https://cdn.footystats.org/img/competitions/south-africa-premier-soccer-league.png</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[{'id': 747, 'year': 2017, 'country': 'South Korea'}, {'id': 748, 'year': 2016, 'country': 'South Korea'}, {'id': 749, 'year': 2015, 'country': 'South Korea'}, {'id': 750, 'year': 2014, 'country': 'South Korea'}, {'id': 751, 'year': 2013, 'country': 'South Korea'}, {'id': 1115, 'year': 2018, 'country': 'South Korea'}, {'id': 1862, 'year': 2019, 'country': 'South Korea'}, {'id': 4379, 'year': 2020, 'country': 'South Korea'}, {'id': 5506, 'year': 2021, 'country': 'South Korea'}, {'id': 7061, 'year': 2022, 'country': 'South Korea'}, {'id': 8899, 'year': 2023, 'country': 'South Korea'}, {'id': 11102, 'year': 2024, 'country': 'South Korea'}, {'id': 16243, 'year': 2025, 'country': 'South Korea'}, {'id': 16627, 'year': 2026, 'country': 'South Korea'}]</t>
+          <t>[{'id': 267, 'year': 20172018, 'country': 'South Africa'}, {'id': 268, 'year': 20162017, 'country': 'South Africa'}, {'id': 269, 'year': 20152016, 'country': 'South Africa'}, {'id': 280, 'year': 20142015, 'country': 'South Africa'}, {'id': 281, 'year': 20132014, 'country': 'South Africa'}, {'id': 1684, 'year': 20182019, 'country': 'South Africa'}, {'id': 2327, 'year': 20192020, 'country': 'South Africa'}, {'id': 5225, 'year': 20202021, 'country': 'South Africa'}, {'id': 6311, 'year': 20212022, 'country': 'South Africa'}, {'id': 7851, 'year': 20222023, 'country': 'South Africa'}, {'id': 9814, 'year': 20232024, 'country': 'South Africa'}, {'id': 13284, 'year': 20242025, 'country': 'South Africa'}, {'id': 15587, 'year': 20252026, 'country': 'South Africa'}]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>South Korea K League 2</t>
+          <t>South Korea K League 1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/south-korea-k-league-2.png</t>
+          <t>https://cdn.footystats.org/img/competitions/south-korea-k-league-1.png</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[{'id': 752, 'year': 2015, 'country': 'South Korea'}, {'id': 753, 'year': 2013, 'country': 'South Korea'}, {'id': 759, 'year': 2017, 'country': 'South Korea'}, {'id': 760, 'year': 2016, 'country': 'South Korea'}, {'id': 761, 'year': 2014, 'country': 'South Korea'}, {'id': 1121, 'year': 2018, 'country': 'South Korea'}, {'id': 1863, 'year': 2019, 'country': 'South Korea'}, {'id': 4381, 'year': 2020, 'country': 'South Korea'}, {'id': 5504, 'year': 2021, 'country': 'South Korea'}, {'id': 7062, 'year': 2022, 'country': 'South Korea'}, {'id': 8938, 'year': 2023, 'country': 'South Korea'}, {'id': 11156, 'year': 2024, 'country': 'South Korea'}, {'id': 16241, 'year': 2025, 'country': 'South Korea'}]</t>
+          <t>[{'id': 747, 'year': 2017, 'country': 'South Korea'}, {'id': 748, 'year': 2016, 'country': 'South Korea'}, {'id': 749, 'year': 2015, 'country': 'South Korea'}, {'id': 750, 'year': 2014, 'country': 'South Korea'}, {'id': 751, 'year': 2013, 'country': 'South Korea'}, {'id': 1115, 'year': 2018, 'country': 'South Korea'}, {'id': 1862, 'year': 2019, 'country': 'South Korea'}, {'id': 4379, 'year': 2020, 'country': 'South Korea'}, {'id': 5506, 'year': 2021, 'country': 'South Korea'}, {'id': 7061, 'year': 2022, 'country': 'South Korea'}, {'id': 8899, 'year': 2023, 'country': 'South Korea'}, {'id': 11102, 'year': 2024, 'country': 'South Korea'}, {'id': 16243, 'year': 2025, 'country': 'South Korea'}, {'id': 16627, 'year': 2026, 'country': 'South Korea'}]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1382,39 +1382,39 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>South Korea K League 2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/spain-la-liga.png</t>
+          <t>https://cdn.footystats.org/img/competitions/south-korea-k-league-2.png</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[{'id': 34, 'year': 20162017, 'country': 'Spain'}, {'id': 35, 'year': 20152016, 'country': 'Spain'}, {'id': 36, 'year': 20142015, 'country': 'Spain'}, {'id': 37, 'year': 20132014, 'country': 'Spain'}, {'id': 38, 'year': 20122013, 'country': 'Spain'}, {'id': 171, 'year': 20172018, 'country': 'Spain'}, {'id': 1677, 'year': 20182019, 'country': 'Spain'}, {'id': 2319, 'year': 20192020, 'country': 'Spain'}, {'id': 3631, 'year': 20112012, 'country': 'Spain'}, {'id': 3632, 'year': 20102011, 'country': 'Spain'}, {'id': 3636, 'year': 20092010, 'country': 'Spain'}, {'id': 3637, 'year': 20082009, 'country': 'Spain'}, {'id': 4944, 'year': 20202021, 'country': 'Spain'}, {'id': 6211, 'year': 20212022, 'country': 'Spain'}, {'id': 7665, 'year': 20222023, 'country': 'Spain'}, {'id': 9665, 'year': 20232024, 'country': 'Spain'}, {'id': 12316, 'year': 20242025, 'country': 'Spain'}, {'id': 14956, 'year': 20252026, 'country': 'Spain'}]</t>
+          <t>[{'id': 752, 'year': 2015, 'country': 'South Korea'}, {'id': 753, 'year': 2013, 'country': 'South Korea'}, {'id': 759, 'year': 2017, 'country': 'South Korea'}, {'id': 760, 'year': 2016, 'country': 'South Korea'}, {'id': 761, 'year': 2014, 'country': 'South Korea'}, {'id': 1121, 'year': 2018, 'country': 'South Korea'}, {'id': 1863, 'year': 2019, 'country': 'South Korea'}, {'id': 4381, 'year': 2020, 'country': 'South Korea'}, {'id': 5504, 'year': 2021, 'country': 'South Korea'}, {'id': 7062, 'year': 2022, 'country': 'South Korea'}, {'id': 8938, 'year': 2023, 'country': 'South Korea'}, {'id': 11156, 'year': 2024, 'country': 'South Korea'}, {'id': 16241, 'year': 2025, 'country': 'South Korea'}]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/spain-segunda-division.png</t>
+          <t>https://cdn.footystats.org/img/competitions/spain-la-liga.png</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[{'id': 39, 'year': 20162017, 'country': 'Spain'}, {'id': 40, 'year': 20152016, 'country': 'Spain'}, {'id': 41, 'year': 20142015, 'country': 'Spain'}, {'id': 42, 'year': 20132014, 'country': 'Spain'}, {'id': 43, 'year': 20122013, 'country': 'Spain'}, {'id': 172, 'year': 20172018, 'country': 'Spain'}, {'id': 1670, 'year': 20182019, 'country': 'Spain'}, {'id': 2415, 'year': 20192020, 'country': 'Spain'}, {'id': 4167, 'year': 20112012, 'country': 'Spain'}, {'id': 4245, 'year': 20102011, 'country': 'Spain'}, {'id': 4249, 'year': 20092010, 'country': 'Spain'}, {'id': 4842, 'year': 20202021, 'country': 'Spain'}, {'id': 6120, 'year': 20212022, 'country': 'Spain'}, {'id': 7592, 'year': 20222023, 'country': 'Spain'}, {'id': 9675, 'year': 20232024, 'country': 'Spain'}, {'id': 12467, 'year': 20242025, 'country': 'Spain'}, {'id': 15066, 'year': 20252026, 'country': 'Spain'}]</t>
+          <t>[{'id': 34, 'year': 20162017, 'country': 'Spain'}, {'id': 35, 'year': 20152016, 'country': 'Spain'}, {'id': 36, 'year': 20142015, 'country': 'Spain'}, {'id': 37, 'year': 20132014, 'country': 'Spain'}, {'id': 38, 'year': 20122013, 'country': 'Spain'}, {'id': 171, 'year': 20172018, 'country': 'Spain'}, {'id': 1677, 'year': 20182019, 'country': 'Spain'}, {'id': 2319, 'year': 20192020, 'country': 'Spain'}, {'id': 3631, 'year': 20112012, 'country': 'Spain'}, {'id': 3632, 'year': 20102011, 'country': 'Spain'}, {'id': 3636, 'year': 20092010, 'country': 'Spain'}, {'id': 3637, 'year': 20082009, 'country': 'Spain'}, {'id': 4944, 'year': 20202021, 'country': 'Spain'}, {'id': 6211, 'year': 20212022, 'country': 'Spain'}, {'id': 7665, 'year': 20222023, 'country': 'Spain'}, {'id': 9665, 'year': 20232024, 'country': 'Spain'}, {'id': 12316, 'year': 20242025, 'country': 'Spain'}, {'id': 14956, 'year': 20252026, 'country': 'Spain'}]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1426,64 +1426,86 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/sweden-allsvenskan.png</t>
+          <t>https://cdn.footystats.org/img/competitions/spain-segunda-division.png</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[{'id': 104, 'year': 2017, 'country': 'Sweden'}, {'id': 105, 'year': 2016, 'country': 'Sweden'}, {'id': 106, 'year': 2015, 'country': 'Sweden'}, {'id': 107, 'year': 2014, 'country': 'Sweden'}, {'id': 994, 'year': 2018, 'country': 'Sweden'}, {'id': 1848, 'year': 2019, 'country': 'Sweden'}, {'id': 3703, 'year': 2020, 'country': 'Sweden'}, {'id': 4307, 'year': 2013, 'country': 'Sweden'}, {'id': 4315, 'year': 2011, 'country': 'Sweden'}, {'id': 4329, 'year': 2010, 'country': 'Sweden'}, {'id': 5505, 'year': 2021, 'country': 'Sweden'}, {'id': 7064, 'year': 2022, 'country': 'Sweden'}, {'id': 8737, 'year': 2023, 'country': 'Sweden'}, {'id': 10969, 'year': 2024, 'country': 'Sweden'}, {'id': 16263, 'year': 2025, 'country': 'Sweden'}, {'id': 16576, 'year': 2026, 'country': 'Sweden'}]</t>
+          <t>[{'id': 39, 'year': 20162017, 'country': 'Spain'}, {'id': 40, 'year': 20152016, 'country': 'Spain'}, {'id': 41, 'year': 20142015, 'country': 'Spain'}, {'id': 42, 'year': 20132014, 'country': 'Spain'}, {'id': 43, 'year': 20122013, 'country': 'Spain'}, {'id': 172, 'year': 20172018, 'country': 'Spain'}, {'id': 1670, 'year': 20182019, 'country': 'Spain'}, {'id': 2415, 'year': 20192020, 'country': 'Spain'}, {'id': 4167, 'year': 20112012, 'country': 'Spain'}, {'id': 4245, 'year': 20102011, 'country': 'Spain'}, {'id': 4249, 'year': 20092010, 'country': 'Spain'}, {'id': 4842, 'year': 20202021, 'country': 'Spain'}, {'id': 6120, 'year': 20212022, 'country': 'Spain'}, {'id': 7592, 'year': 20222023, 'country': 'Spain'}, {'id': 9675, 'year': 20232024, 'country': 'Spain'}, {'id': 12467, 'year': 20242025, 'country': 'Spain'}, {'id': 15066, 'year': 20252026, 'country': 'Spain'}]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://cdn.footystats.org/img/competitions/switzerland-super-league.png</t>
+          <t>https://cdn.footystats.org/img/competitions/sweden-allsvenskan.png</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[{'id': 136, 'year': 20162017, 'country': 'Switzerland'}, {'id': 137, 'year': 20152016, 'country': 'Switzerland'}, {'id': 138, 'year': 20142015, 'country': 'Switzerland'}, {'id': 139, 'year': 20132014, 'country': 'Switzerland'}, {'id': 140, 'year': 20122013, 'country': 'Switzerland'}, {'id': 186, 'year': 20172018, 'country': 'Switzerland'}, {'id': 1610, 'year': 20182019, 'country': 'Switzerland'}, {'id': 2249, 'year': 20192020, 'country': 'Switzerland'}, {'id': 4906, 'year': 20202021, 'country': 'Switzerland'}, {'id': 6044, 'year': 20212022, 'country': 'Switzerland'}, {'id': 7504, 'year': 20222023, 'country': 'Switzerland'}, {'id': 9580, 'year': 20232024, 'country': 'Switzerland'}, {'id': 12326, 'year': 20242025, 'country': 'Switzerland'}, {'id': 15047, 'year': 20252026, 'country': 'Switzerland'}]</t>
+          <t>[{'id': 104, 'year': 2017, 'country': 'Sweden'}, {'id': 105, 'year': 2016, 'country': 'Sweden'}, {'id': 106, 'year': 2015, 'country': 'Sweden'}, {'id': 107, 'year': 2014, 'country': 'Sweden'}, {'id': 994, 'year': 2018, 'country': 'Sweden'}, {'id': 1848, 'year': 2019, 'country': 'Sweden'}, {'id': 3703, 'year': 2020, 'country': 'Sweden'}, {'id': 4307, 'year': 2013, 'country': 'Sweden'}, {'id': 4315, 'year': 2011, 'country': 'Sweden'}, {'id': 4329, 'year': 2010, 'country': 'Sweden'}, {'id': 5505, 'year': 2021, 'country': 'Sweden'}, {'id': 7064, 'year': 2022, 'country': 'Sweden'}, {'id': 8737, 'year': 2023, 'country': 'Sweden'}, {'id': 10969, 'year': 2024, 'country': 'Sweden'}, {'id': 16263, 'year': 2025, 'country': 'Sweden'}, {'id': 16576, 'year': 2026, 'country': 'Sweden'}]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://cdn.footystats.org/img/competitions/switzerland-super-league.png</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[{'id': 136, 'year': 20162017, 'country': 'Switzerland'}, {'id': 137, 'year': 20152016, 'country': 'Switzerland'}, {'id': 138, 'year': 20142015, 'country': 'Switzerland'}, {'id': 139, 'year': 20132014, 'country': 'Switzerland'}, {'id': 140, 'year': 20122013, 'country': 'Switzerland'}, {'id': 186, 'year': 20172018, 'country': 'Switzerland'}, {'id': 1610, 'year': 20182019, 'country': 'Switzerland'}, {'id': 2249, 'year': 20192020, 'country': 'Switzerland'}, {'id': 4906, 'year': 20202021, 'country': 'Switzerland'}, {'id': 6044, 'year': 20212022, 'country': 'Switzerland'}, {'id': 7504, 'year': 20222023, 'country': 'Switzerland'}, {'id': 9580, 'year': 20232024, 'country': 'Switzerland'}, {'id': 12326, 'year': 20242025, 'country': 'Switzerland'}, {'id': 15047, 'year': 20252026, 'country': 'Switzerland'}]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>USA MLS</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>https://cdn.footystats.org/img/competitions/usa-mls.png</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>[{'id': 1, 'year': 2016, 'country': 'USA'}, {'id': 16, 'year': 2015, 'country': 'USA'}, {'id': 23, 'year': 2014, 'country': 'USA'}, {'id': 24, 'year': 2013, 'country': 'USA'}, {'id': 163, 'year': 2017, 'country': 'USA'}, {'id': 1076, 'year': 2018, 'country': 'USA'}, {'id': 1846, 'year': 2019, 'country': 'USA'}, {'id': 4227, 'year': 2012, 'country': 'USA'}, {'id': 4235, 'year': 2011, 'country': 'USA'}, {'id': 4241, 'year': 2010, 'country': 'USA'}, {'id': 4473, 'year': 2020, 'country': 'USA'}, {'id': 5674, 'year': 2021, 'country': 'USA'}, {'id': 6969, 'year': 2022, 'country': 'USA'}, {'id': 8777, 'year': 2023, 'country': 'USA'}, {'id': 10977, 'year': 2024, 'country': 'USA'}, {'id': 13973, 'year': 2025, 'country': 'USA'}, {'id': 16504, 'year': 2026, 'country': 'USA'}]</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>USA</t>
         </is>

--- a/ligas_footystats.xlsx
+++ b/ligas_footystats.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[{'id': 102, 'year': 2014, 'country': 'Brazil'}, {'id': 103, 'year': 2013, 'country': 'Brazil'}, {'id': 113, 'year': 2015, 'country': 'Brazil'}, {'id': 193, 'year': 2017, 'country': 'Brazil'}, {'id': 1199, 'year': 2018, 'country': 'Brazil'}, {'id': 1937, 'year': 2019, 'country': 'Brazil'}, {'id': 4565, 'year': 2020, 'country': 'Brazil'}, {'id': 5721, 'year': 2021, 'country': 'Brazil'}, {'id': 5855, 'year': 2016, 'country': 'Brazil'}, {'id': 7107, 'year': 2022, 'country': 'Brazil'}, {'id': 9042, 'year': 2023, 'country': 'Brazil'}, {'id': 11351, 'year': 2024, 'country': 'Brazil'}, {'id': 14305, 'year': 2025, 'country': 'Brazil'}]</t>
+          <t>[{'id': 102, 'year': 2014, 'country': 'Brazil'}, {'id': 103, 'year': 2013, 'country': 'Brazil'}, {'id': 113, 'year': 2015, 'country': 'Brazil'}, {'id': 193, 'year': 2017, 'country': 'Brazil'}, {'id': 1199, 'year': 2018, 'country': 'Brazil'}, {'id': 1937, 'year': 2019, 'country': 'Brazil'}, {'id': 4565, 'year': 2020, 'country': 'Brazil'}, {'id': 5721, 'year': 2021, 'country': 'Brazil'}, {'id': 5855, 'year': 2016, 'country': 'Brazil'}, {'id': 7107, 'year': 2022, 'country': 'Brazil'}, {'id': 9042, 'year': 2023, 'country': 'Brazil'}, {'id': 11351, 'year': 2024, 'country': 'Brazil'}, {'id': 14305, 'year': 2025, 'country': 'Brazil'}, {'id': 16783, 'year': 2026, 'country': 'Brazil'}]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">

--- a/ligas_footystats.xlsx
+++ b/ligas_footystats.xlsx
@@ -622,7 +622,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[{'id': 127, 'year': 2016, 'country': 'China'}, {'id': 128, 'year': 2015, 'country': 'China'}, {'id': 129, 'year': 2014, 'country': 'China'}, {'id': 152, 'year': 2017, 'country': 'China'}, {'id': 1072, 'year': 2018, 'country': 'China'}, {'id': 1871, 'year': 2019, 'country': 'China'}, {'id': 4306, 'year': 2013, 'country': 'China'}, {'id': 4313, 'year': 2012, 'country': 'China'}, {'id': 4330, 'year': 2011, 'country': 'China'}, {'id': 4337, 'year': 2010, 'country': 'China'}, {'id': 4382, 'year': 2020, 'country': 'China'}, {'id': 5728, 'year': 2021, 'country': 'China'}, {'id': 7356, 'year': 2022, 'country': 'China'}, {'id': 9186, 'year': 2023, 'country': 'China'}, {'id': 11217, 'year': 2024, 'country': 'China'}, {'id': 14153, 'year': 2025, 'country': 'China'}]</t>
+          <t>[{'id': 127, 'year': 2016, 'country': 'China'}, {'id': 128, 'year': 2015, 'country': 'China'}, {'id': 129, 'year': 2014, 'country': 'China'}, {'id': 152, 'year': 2017, 'country': 'China'}, {'id': 1072, 'year': 2018, 'country': 'China'}, {'id': 1871, 'year': 2019, 'country': 'China'}, {'id': 4306, 'year': 2013, 'country': 'China'}, {'id': 4313, 'year': 2012, 'country': 'China'}, {'id': 4330, 'year': 2011, 'country': 'China'}, {'id': 4337, 'year': 2010, 'country': 'China'}, {'id': 4382, 'year': 2020, 'country': 'China'}, {'id': 5728, 'year': 2021, 'country': 'China'}, {'id': 7356, 'year': 2022, 'country': 'China'}, {'id': 9186, 'year': 2023, 'country': 'China'}, {'id': 11217, 'year': 2024, 'country': 'China'}, {'id': 14153, 'year': 2025, 'country': 'China'}, {'id': 16789, 'year': 2026, 'country': 'China'}]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[{'id': 752, 'year': 2015, 'country': 'South Korea'}, {'id': 753, 'year': 2013, 'country': 'South Korea'}, {'id': 759, 'year': 2017, 'country': 'South Korea'}, {'id': 760, 'year': 2016, 'country': 'South Korea'}, {'id': 761, 'year': 2014, 'country': 'South Korea'}, {'id': 1121, 'year': 2018, 'country': 'South Korea'}, {'id': 1863, 'year': 2019, 'country': 'South Korea'}, {'id': 4381, 'year': 2020, 'country': 'South Korea'}, {'id': 5504, 'year': 2021, 'country': 'South Korea'}, {'id': 7062, 'year': 2022, 'country': 'South Korea'}, {'id': 8938, 'year': 2023, 'country': 'South Korea'}, {'id': 11156, 'year': 2024, 'country': 'South Korea'}, {'id': 16241, 'year': 2025, 'country': 'South Korea'}]</t>
+          <t>[{'id': 752, 'year': 2015, 'country': 'South Korea'}, {'id': 753, 'year': 2013, 'country': 'South Korea'}, {'id': 759, 'year': 2017, 'country': 'South Korea'}, {'id': 760, 'year': 2016, 'country': 'South Korea'}, {'id': 761, 'year': 2014, 'country': 'South Korea'}, {'id': 1121, 'year': 2018, 'country': 'South Korea'}, {'id': 1863, 'year': 2019, 'country': 'South Korea'}, {'id': 4381, 'year': 2020, 'country': 'South Korea'}, {'id': 5504, 'year': 2021, 'country': 'South Korea'}, {'id': 7062, 'year': 2022, 'country': 'South Korea'}, {'id': 8938, 'year': 2023, 'country': 'South Korea'}, {'id': 11156, 'year': 2024, 'country': 'South Korea'}, {'id': 16241, 'year': 2025, 'country': 'South Korea'}, {'id': 16792, 'year': 2026, 'country': 'South Korea'}]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
